--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1564576.498837406</v>
+        <v>1671805.940235493</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12502432.03437992</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283178</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10402326.54161545</v>
+        <v>10415774.98699509</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71.032674894081</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>68.76973734228078</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -823,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>5.883052481151314</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>122.0870627977169</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>303.4524392946262</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>32.90564724480839</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1060,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>174.4769695869691</v>
+        <v>79.34219821444177</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>259.6580847920584</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>37.84125266805073</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>155.0284143536092</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>242.3146814191578</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1534,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>140.3829797864979</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1813,22 +1815,22 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>174.7683347992604</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>185.4048731212365</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>90.69284018412962</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>26.07046444232116</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>148.628235372949</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,10 +2292,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>212.5602966632236</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>26.12116916215706</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>186.9166231085228</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2722,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>119.6760079449695</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>176.7621441121407</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>99.9742741983392</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>160.226189904322</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>99.9742741983392</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>47.84205650382022</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3433,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>71.60395572454465</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>53.1193700387787</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3797,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3901,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>115.7063133373728</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3986,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
-        <v>105.6507867899574</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1992.424186004858</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="C2" t="n">
-        <v>1992.424186004858</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
         <v>795.755353087291</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2492.874947246336</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2492.874947246336</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>2239.293886510516</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.640120926626</v>
+        <v>1908.230999166945</v>
       </c>
       <c r="W2" t="n">
-        <v>2437.640120926626</v>
+        <v>1555.462343896831</v>
       </c>
       <c r="X2" t="n">
-        <v>2064.174362665546</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="Y2" t="n">
-        <v>2064.174362665546</v>
+        <v>1181.996585635751</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341572</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.486495938517</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4440,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>944.8867386045655</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C4" t="n">
-        <v>775.9505556766586</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D4" t="n">
-        <v>625.8339162643229</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>477.9208226819297</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>331.0308751840194</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>163.0444104922979</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4516,22 +4518,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="V4" t="n">
-        <v>1347.327782578335</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.327782578335</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X4" t="n">
-        <v>1347.327782578335</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y4" t="n">
-        <v>1126.535203434805</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1528.069587875903</v>
+        <v>1313.273607737845</v>
       </c>
       <c r="C5" t="n">
-        <v>1528.069587875903</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="D5" t="n">
-        <v>1169.803889269153</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="E5" t="n">
-        <v>784.0156366709084</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F5" t="n">
-        <v>373.0297318813008</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G5" t="n">
-        <v>66.5121164321834</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>2404.402093406617</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>2404.402093406617</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176916</v>
+        <v>2073.339206063047</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176916</v>
+        <v>2073.339206063047</v>
       </c>
       <c r="X5" t="n">
-        <v>2304.808759915837</v>
+        <v>1699.873447801967</v>
       </c>
       <c r="Y5" t="n">
-        <v>1914.669427940025</v>
+        <v>1699.873447801967</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>777.020896318616</v>
+        <v>665.9284545426499</v>
       </c>
       <c r="C7" t="n">
-        <v>608.0847133907091</v>
+        <v>496.992271614743</v>
       </c>
       <c r="D7" t="n">
-        <v>457.9680739783734</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959802</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959802</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="W7" t="n">
-        <v>1134.908724368016</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="X7" t="n">
-        <v>958.6693611488557</v>
+        <v>847.5769193728896</v>
       </c>
       <c r="Y7" t="n">
-        <v>958.6693611488557</v>
+        <v>847.5769193728896</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1059.365742829028</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>690.4032258886161</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>332.1375272818656</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>3177.09166559278</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>3177.09166559278</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2824.323010322666</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X8" t="n">
-        <v>2824.323010322666</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>1445.96558289315</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>945.3964936596652</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="C10" t="n">
-        <v>776.4603107317583</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W10" t="n">
-        <v>1101.990851592604</v>
+        <v>847.8809899086521</v>
       </c>
       <c r="X10" t="n">
-        <v>1101.990851592604</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="Y10" t="n">
-        <v>1101.990851592604</v>
+        <v>619.8914390106347</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5038,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,10 +5053,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
@@ -5115,31 +5117,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468473</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969299</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5206,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855605</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2160.315914855605</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5273,28 +5275,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5355,28 +5357,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5461,19 +5463,19 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2203.383708318259</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1983.7822433412</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X16" t="n">
         <v>1501.108204237296</v>
@@ -5504,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2222.001901828445</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2420.62928111327</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2237.774446768174</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2018.172981791115</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1729.097755135313</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1729.097755135313</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,7 +5788,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5841,16 +5843,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>2708.375213874103</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>3227.210417279773</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>3006.417838136243</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>814.4041655335318</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>664.287526121196</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>516.3744325388029</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>369.4844850408925</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>202.2883857557725</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2191.112710026075</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M27" t="n">
-        <v>923.0670414349513</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N27" t="n">
-        <v>1550.665004989558</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O27" t="n">
-        <v>2102.574735228845</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>2526.197884723913</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487568</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>2197.062545487568</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6479,10 +6481,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6543,7 +6545,7 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>244.2098454714573</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L30" t="n">
         <v>739.5354516872161</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>783.5579673960132</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C31" t="n">
-        <v>614.6217844681063</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="D31" t="n">
-        <v>464.5051450557705</v>
+        <v>2438.670847218162</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2285.118447313269</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T31" t="n">
-        <v>2065.51698233621</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U31" t="n">
-        <v>1776.441755680408</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V31" t="n">
-        <v>1521.757267474521</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W31" t="n">
-        <v>1232.340097437561</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X31" t="n">
-        <v>1004.350546539543</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y31" t="n">
-        <v>783.5579673960132</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6686,19 +6688,19 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075809</v>
@@ -6710,10 +6712,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400717</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="D34" t="n">
-        <v>513.8536007400717</v>
+        <v>2438.670847218162</v>
       </c>
       <c r="E34" t="n">
-        <v>365.9405071576786</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="F34" t="n">
-        <v>365.9405071576786</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,13 +6955,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6971,7 +6973,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913447</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>2592.376702893874</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>3087.702309109633</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M36" t="n">
-        <v>3087.702309109633</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>3715.300272664239</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>4267.210002903526</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>4690.833152398594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782988</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038375</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797776</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832666</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832666</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832666</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176864</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,22 +7186,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516144</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N39" t="n">
-        <v>1804.131916132773</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>2356.04164637206</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7427,31 +7429,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2330.088019603117</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2110.486554626058</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1821.411327970255</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1566.726839764368</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1277.309669727408</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7664,31 +7666,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516144</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.533952578166</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8058,25 +8060,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>231.2582814363236</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>30.36925650589512</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8304,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>0.9556134883061986</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>54.95314511566545</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>111.7546635373301</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23701,22 +23703,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>6.25795120238422</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>101.1181252153545</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>55.74112246243955</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>40.3047822678005</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>31.20374480898829</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>73.62417772602058</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>114.1735436840668</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>99.26785128072137</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24610,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>25.7450400779617</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>75.37549921168727</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844822997</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>20.80009609732255</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>46.45968844822997</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>117.6820817884486</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>61.35027805667497</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>180.5336875992834</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>112.4047682534901</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>65.3199726642718</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
-        <v>180.5336875992868</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>917595.5874321447</v>
+        <v>917595.5874321448</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>910465.2744308597</v>
+        <v>917595.5874321447</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>910465.2744308597</v>
+        <v>917595.5874321448</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391546</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391546</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391546</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391546</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>895180.5872391548</v>
+        <v>895180.5872391546</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391546</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.150411784</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="F2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
       <c r="I2" t="n">
         <v>524645.2897985041</v>
@@ -26338,10 +26340,10 @@
         <v>524645.289798504</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
         <v>524645.289798504</v>
@@ -26350,10 +26352,10 @@
         <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121058</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605445</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>134318.0002618638</v>
+      </c>
+      <c r="C4" t="n">
         <v>134318.0002618637</v>
       </c>
-      <c r="C4" t="n">
-        <v>87304.3471980833</v>
-      </c>
       <c r="D4" t="n">
-        <v>87304.34719808327</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731976</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731976</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.31242673194</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731936</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731942</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
         <v>8117.312426731974</v>
@@ -26454,7 +26456,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26470,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-808330.4058658442</v>
+        <v>-808330.4058658441</v>
       </c>
       <c r="C6" t="n">
-        <v>135000.1210402018</v>
+        <v>306421.3777100759</v>
       </c>
       <c r="D6" t="n">
-        <v>338438.862652308</v>
+        <v>306421.377710076</v>
       </c>
       <c r="E6" t="n">
-        <v>89992.98574050912</v>
+        <v>-92079.99407668132</v>
       </c>
       <c r="F6" t="n">
+        <v>415405.4475478648</v>
+      </c>
+      <c r="G6" t="n">
+        <v>415405.4475478651</v>
+      </c>
+      <c r="H6" t="n">
         <v>415405.4475478649</v>
-      </c>
-      <c r="G6" t="n">
-        <v>415405.4475478648</v>
-      </c>
-      <c r="H6" t="n">
-        <v>415405.4475478646</v>
       </c>
       <c r="I6" t="n">
         <v>415405.447547865</v>
       </c>
       <c r="J6" t="n">
-        <v>247800.2697378824</v>
+        <v>247800.2697378823</v>
       </c>
       <c r="K6" t="n">
-        <v>366295.3548418103</v>
+        <v>415405.4475478649</v>
       </c>
       <c r="L6" t="n">
-        <v>415405.4475478648</v>
+        <v>415405.4475478649</v>
       </c>
       <c r="M6" t="n">
-        <v>330350.4196123529</v>
+        <v>282798.1538189381</v>
       </c>
       <c r="N6" t="n">
         <v>415405.4475478649</v>
       </c>
       <c r="O6" t="n">
-        <v>415405.4475478648</v>
+        <v>415405.4475478649</v>
       </c>
       <c r="P6" t="n">
-        <v>415405.4475478648</v>
+        <v>415405.4475478649</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175392</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175393</v>
       </c>
-      <c r="C3" t="n">
-        <v>1089.776700593298</v>
-      </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26820,16 +26822,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>155.711808475759</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>311.7011667693996</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>54.68247805651359</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27543,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>141.3684566739775</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,19 +27590,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>164.1400913234838</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>107.4692863588272</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>173.7525377354254</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>51.23268580206803</v>
+        <v>146.3674571745954</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>122.2722852802033</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>213.1539192908513</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.80356582832812</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28073,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>44.20831691743319</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,37 +31837,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>282.8216163968492</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>601.0567753070487</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32075,10 +32077,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
@@ -32090,16 +32092,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>246.2467565146294</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>322.6999460717711</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>637.8521160493917</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>167.1165249313363</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>138.5955196772183</v>
+        <v>138.5955196772184</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33289,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>543.0832917018706</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>351.1157147121638</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>295.974394015948</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +34000,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>746.4857620875795</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34368,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>434.1786358382023</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>566.6829634324466</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>280.0487856294274</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>392.1527130811802</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>304.6326742391977</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>140.6875824748309</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>469.7150632237154</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
@@ -35738,16 +35740,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>22.33282074962425</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>191.3582339884378</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>499.2977362695175</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.13475084531481</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,19 +36913,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0.7540807028593151</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>409.1088842875403</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>213.2742757378048</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295643</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>161.9999866016177</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>615.1440500042462</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367765</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>291.5823913937579</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1671805.940235493</v>
+        <v>1667668.782985341</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.105228321</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>284.0788930262599</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>68.76973734228078</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>122.0870627977169</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>196.4017961483597</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>32.90564724480839</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>188.9150538528692</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>31.10811072719289</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>79.34219821444177</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>259.6580847920584</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>43.13251517495316</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>197.2597383356326</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>242.3146814191578</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97427419833859</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>35.88641949135638</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605705364</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922801</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -1824,13 +1824,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>185.4048731212365</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>90.69284018412962</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892427088</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533521061</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.628235372949</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>1.12759545149386e-11</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>130.7323655469447</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710101</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>26.80026191613561</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>26.12116916215706</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695591</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>119.6760079449695</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>9.14614278817986</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>99.9742741983392</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>99.9742741983392</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3325,10 +3325,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3435,7 +3435,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>19.91555826189057</v>
+        <v>33.82891891787531</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>53.1193700387787</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>99.18584932336123</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>102.1557845699813</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1181.996585635751</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="C2" t="n">
-        <v>1181.996585635751</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="D2" t="n">
-        <v>1181.996585635751</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2492.874947246336</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2492.874947246336</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2239.293886510516</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1908.230999166945</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>1555.462343896831</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X2" t="n">
-        <v>1181.996585635751</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="Y2" t="n">
-        <v>1181.996585635751</v>
+        <v>1975.31341879663</v>
       </c>
     </row>
     <row r="3">
@@ -4403,28 +4403,28 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>590.20497511435</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
         <v>2214.708848710446</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370.2996089082458</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C4" t="n">
-        <v>201.3634259803388</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800311</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E4" t="n">
         <v>51.24678656800311</v>
@@ -4518,22 +4518,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269233</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1290.147373816994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1290.147373816994</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="W4" t="n">
-        <v>1000.730203780033</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X4" t="n">
-        <v>772.7406528820156</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y4" t="n">
-        <v>551.9480737384855</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1313.273607737845</v>
+        <v>1606.635933406614</v>
       </c>
       <c r="C5" t="n">
-        <v>944.3110907974333</v>
+        <v>1606.635933406614</v>
       </c>
       <c r="D5" t="n">
-        <v>944.3110907974333</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974333</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078258</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4567,13 +4567,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4597,22 +4597,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2404.402093406617</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2404.402093406617</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2073.339206063047</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>2073.339206063047</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X5" t="n">
-        <v>1699.873447801967</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="Y5" t="n">
-        <v>1699.873447801967</v>
+        <v>1993.235773470735</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625332</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>956.2844025217532</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1344.515588472122</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1676.586023648284</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>665.9284545426499</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C7" t="n">
-        <v>496.992271614743</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D7" t="n">
-        <v>346.8756322024072</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E7" t="n">
-        <v>346.8756322024072</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>250.6555853275961</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>82.66912063587472</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>82.66912063587472</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4752,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>927.7205539329318</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>927.7205539329318</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>927.7205539329318</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X7" t="n">
-        <v>847.5769193728896</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>847.5769193728896</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1059.365742829028</v>
+        <v>1617.332751740275</v>
       </c>
       <c r="C8" t="n">
-        <v>690.4032258886161</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D8" t="n">
-        <v>332.1375272818656</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2394.071923780208</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2394.071923780208</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2394.071923780208</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130041</v>
+        <v>2394.071923780208</v>
       </c>
       <c r="X8" t="n">
-        <v>1836.104914868961</v>
+        <v>2394.071923780208</v>
       </c>
       <c r="Y8" t="n">
-        <v>1445.96558289315</v>
+        <v>2003.932591804396</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
         <v>2239.046898434118</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>619.8914390106347</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>619.8914390106347</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>619.8914390106347</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>471.9783454282416</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1347.327782578335</v>
+        <v>1437.193859129414</v>
       </c>
       <c r="V10" t="n">
-        <v>1092.643294372448</v>
+        <v>1182.509370923527</v>
       </c>
       <c r="W10" t="n">
-        <v>847.8809899086521</v>
+        <v>893.0922008865665</v>
       </c>
       <c r="X10" t="n">
-        <v>619.8914390106347</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="Y10" t="n">
-        <v>619.8914390106347</v>
+        <v>665.1026499885492</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,7 +5029,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,13 +5038,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,10 +5053,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>245.2306927803938</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>1052.829365488568</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>883.8931825606608</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998291</v>
+        <v>733.776543148325</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797189</v>
+        <v>585.8634495659319</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>438.9735020680215</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>271.7774027829014</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>130.0655716250996</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1972.677130397315</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1683.259960360355</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1455.270409462337</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1234.477830318807</v>
       </c>
     </row>
     <row r="14">
@@ -5269,58 +5269,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>343.0994656851897</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>343.0994656851897</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851897</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5472,16 +5472,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5506,31 +5506,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400603</v>
       </c>
       <c r="C19" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121534</v>
       </c>
       <c r="D19" t="n">
-        <v>414.4022433768874</v>
+        <v>344.9174178121534</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121534</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121534</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270334</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703</v>
       </c>
     </row>
     <row r="20">
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,13 +5764,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5791,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2856.288307456496</v>
+        <v>631.7012443409019</v>
       </c>
       <c r="C22" t="n">
-        <v>2856.288307456496</v>
+        <v>631.7012443409019</v>
       </c>
       <c r="D22" t="n">
-        <v>2856.288307456496</v>
+        <v>631.7012443409019</v>
       </c>
       <c r="E22" t="n">
-        <v>2708.375213874103</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>2561.485266376193</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053498</v>
+        <v>2314.910189088398</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.376853076439</v>
+        <v>2095.308724111339</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420637</v>
+        <v>1806.233497455537</v>
       </c>
       <c r="V22" t="n">
-        <v>3744.61713821475</v>
+        <v>1551.54900924965</v>
       </c>
       <c r="W22" t="n">
-        <v>3455.19996817779</v>
+        <v>1262.131839212689</v>
       </c>
       <c r="X22" t="n">
-        <v>3227.210417279773</v>
+        <v>1034.142288314672</v>
       </c>
       <c r="Y22" t="n">
-        <v>3006.417838136243</v>
+        <v>813.3497091711416</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,64 +5977,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6083,13 +6083,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,55 +6123,55 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3403484614387</v>
+        <v>808.8888553856866</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4041655335318</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D25" t="n">
-        <v>664.287526121196</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E25" t="n">
-        <v>516.3744325388029</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>369.4844850408925</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>202.2883857557725</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
@@ -6189,10 +6189,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y25" t="n">
-        <v>983.3403484614387</v>
+        <v>990.5373202159263</v>
       </c>
     </row>
     <row r="26">
@@ -6217,40 +6217,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925216</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E28" t="n">
-        <v>296.7882229101285</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168404</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>2438.670847218162</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>2337.686731866304</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>2337.686731866304</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6688,34 +6688,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630498</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>2438.670847218162</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>2337.686731866304</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866304</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,7 +6973,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D37" t="n">
-        <v>261.8464821474262</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E37" t="n">
-        <v>113.9333885650331</v>
+        <v>274.8772357154533</v>
       </c>
       <c r="F37" t="n">
-        <v>113.9333885650331</v>
+        <v>127.9872882175429</v>
       </c>
       <c r="G37" t="n">
-        <v>113.9333885650331</v>
+        <v>127.9872882175429</v>
       </c>
       <c r="H37" t="n">
-        <v>113.9333885650331</v>
+        <v>127.9872882175429</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="38">
@@ -7168,40 +7168,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.5020655703109</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C40" t="n">
-        <v>526.5658826424041</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D40" t="n">
-        <v>376.4492432300683</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E40" t="n">
-        <v>376.4492432300683</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>229.5592957321579</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1400.559342807163</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>951.7772127656159</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,10 +7423,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>197.0043242297712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>197.0043242297712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>197.0043242297712</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780645</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>30.36925650589512</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9556134883061986</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>54.95314511566545</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>45.37941682720913</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101326</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>146.815700412507</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>101.1181252153545</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>55.74112246243955</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392195298</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.20374480898829</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,13 +24135,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>50.29392045469993</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>140.4465591824922</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>114.1735436840668</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>25.7450400779617</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.11969353038566</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>46.45968844822997</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844822997</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25332,7 +25332,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>61.35027805667497</v>
+        <v>47.43691740069021</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25557,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>112.4047682534901</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>187.3371490132298</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>38.13892827624255</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347514</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>917595.5874321448</v>
+        <v>917595.5874321447</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>895180.5872391546</v>
+        <v>895180.5872391545</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391544</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>895180.5872391546</v>
+        <v>895180.5872391544</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391544</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>895180.5872391546</v>
+        <v>895180.5872391547</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>895180.5872391546</v>
+        <v>895180.5872391547</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>895180.5872391546</v>
+        <v>895180.5872391547</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985035</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985036</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985036</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985035</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985036</v>
       </c>
       <c r="J2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099825</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,25 +26420,25 @@
         <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
+        <v>134318.0002618638</v>
+      </c>
+      <c r="D4" t="n">
         <v>134318.0002618637</v>
       </c>
-      <c r="D4" t="n">
-        <v>134318.0002618638</v>
-      </c>
       <c r="E4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.31242673182</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.31242673182</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.31242673182</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731797</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731852</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731974</v>
@@ -26450,7 +26450,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.31242673194</v>
       </c>
       <c r="N4" t="n">
         <v>8117.312426731974</v>
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26524,46 +26524,46 @@
         <v>-808330.4058658441</v>
       </c>
       <c r="C6" t="n">
-        <v>306421.3777100759</v>
+        <v>306421.3777100758</v>
       </c>
       <c r="D6" t="n">
-        <v>306421.377710076</v>
+        <v>306421.3777100755</v>
       </c>
       <c r="E6" t="n">
-        <v>-92079.99407668132</v>
+        <v>-92427.37333103834</v>
       </c>
       <c r="F6" t="n">
-        <v>415405.4475478648</v>
+        <v>415058.0682935077</v>
       </c>
       <c r="G6" t="n">
-        <v>415405.4475478651</v>
+        <v>415058.0682935077</v>
       </c>
       <c r="H6" t="n">
-        <v>415405.4475478649</v>
+        <v>415058.0682935076</v>
       </c>
       <c r="I6" t="n">
-        <v>415405.447547865</v>
+        <v>415058.0682935076</v>
       </c>
       <c r="J6" t="n">
-        <v>247800.2697378823</v>
+        <v>247452.8904835254</v>
       </c>
       <c r="K6" t="n">
-        <v>415405.4475478649</v>
+        <v>415058.0682935077</v>
       </c>
       <c r="L6" t="n">
-        <v>415405.4475478649</v>
+        <v>415058.0682935077</v>
       </c>
       <c r="M6" t="n">
-        <v>282798.1538189381</v>
+        <v>282450.7745645809</v>
       </c>
       <c r="N6" t="n">
-        <v>415405.4475478649</v>
+        <v>415058.0682935077</v>
       </c>
       <c r="O6" t="n">
-        <v>415405.4475478649</v>
+        <v>415058.0682935077</v>
       </c>
       <c r="P6" t="n">
-        <v>415405.4475478649</v>
+        <v>415058.0682935077</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175393</v>
-      </c>
-      <c r="D3" t="n">
-        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,13 +26795,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26810,10 +26810,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
         <v>640.5848321000387</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>98.65494863722063</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>54.68247805651359</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27590,13 +27590,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>164.1400913234838</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>55.73584717546831</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>173.7525377354254</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>197.3228848031843</v>
       </c>
     </row>
     <row r="6">
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>73.68848447670769</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>146.3674571745954</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>122.2722852802033</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>163.5256698052806</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,10 +28013,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,13 +28067,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>88.96741578556802</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>44.20831691743319</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28295,7 +28295,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-1.095576117183461e-11</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28499,7 +28499,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-1.12759545149386e-11</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28790,7 +28790,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-1.12759545149386e-11</v>
       </c>
     </row>
     <row r="20">
@@ -28967,7 +28967,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-1.12759545149386e-11</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -29037,10 +29037,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-2.508117851338566e-12</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,34 +31837,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>601.0567753070487</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32074,13 +32074,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
@@ -32092,16 +32092,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>291.8940795642898</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>246.2467565146294</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,16 +33049,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,16 +33286,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>403.8524967138027</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34368,34 +34368,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>391.605194951448</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215493</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
@@ -34795,7 +34795,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>280.0487856294274</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>326.5580100667037</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>392.1527130811802</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>304.6326742391977</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>469.7150632237154</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
@@ -35740,16 +35740,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>108.4053175402704</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>499.2977362695175</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>73.18080466315317</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>272.5107846304694</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>253.0508151715738</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1667668.782985341</v>
+        <v>1669429.313288128</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228321</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>284.0788930262599</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25.96124341869934</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -718,13 +718,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>50.98074812542785</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>196.4017961483597</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -955,16 +955,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>123.3747169304274</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>188.9150538528692</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1059,22 +1059,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>31.10811072719289</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>71.90650500466631</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>43.13251517495316</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>208.8990535094716</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>197.2597383356326</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>37.41782514684017</v>
       </c>
       <c r="I13" t="n">
-        <v>35.88641949135638</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>1.799772605705364</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922801</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>74.95497330697962</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892427088</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533521061</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.12759545149386e-11</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>130.7323655469447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710101</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>26.80026191613561</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695591</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>9.14614278817986</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="I37" t="n">
-        <v>33.82891891787531</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>55.52079624060472</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>99.18584932336123</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1688.365042002428</v>
+        <v>531.4162778577434</v>
       </c>
       <c r="C2" t="n">
-        <v>1688.365042002428</v>
+        <v>162.4537609173316</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.099343395678</v>
+        <v>162.4537609173316</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>162.4537609173316</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>155.5082601681282</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>143.8439139328211</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4330,25 +4330,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.31341879663</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1975.31341879663</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>1975.31341879663</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4412,25 +4412,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>590.20497511435</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458217</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.2127024906389</v>
+        <v>1590.995858314208</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2765195627319</v>
+        <v>1422.059675386301</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>1271.943035973965</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>1124.029942391572</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>2510.843623222956</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>2510.843623222956</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>2510.843623222956</v>
       </c>
       <c r="V4" t="n">
-        <v>1438.060467399387</v>
+        <v>2510.843623222956</v>
       </c>
       <c r="W4" t="n">
-        <v>1148.643297362426</v>
+        <v>2221.426453185995</v>
       </c>
       <c r="X4" t="n">
-        <v>920.6537464644088</v>
+        <v>1993.436902287978</v>
       </c>
       <c r="Y4" t="n">
-        <v>699.8611673208786</v>
+        <v>1772.644323144448</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1606.635933406614</v>
+        <v>909.233203697441</v>
       </c>
       <c r="C5" t="n">
-        <v>1606.635933406614</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.370234799863</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4567,13 +4567,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4603,16 +4603,16 @@
         <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2184.059060190805</v>
+        <v>2059.438133998454</v>
       </c>
       <c r="W5" t="n">
-        <v>2184.059060190805</v>
+        <v>2059.438133998454</v>
       </c>
       <c r="X5" t="n">
-        <v>2184.059060190805</v>
+        <v>1685.972375737374</v>
       </c>
       <c r="Y5" t="n">
-        <v>1993.235773470735</v>
+        <v>1295.833043761563</v>
       </c>
     </row>
     <row r="6">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657491</v>
+        <v>514.9860105762135</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378422</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255065</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>397.5455328255065</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>250.6555853275961</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>82.66912063587472</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>82.66912063587472</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1461.229880252032</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1461.229880252032</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1172.11154275587</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>917.4270545499834</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037536</v>
+        <v>917.4270545499834</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.039399139519</v>
+        <v>917.4270545499834</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959889</v>
+        <v>696.6344754064532</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.332751740275</v>
+        <v>1201.12525314008</v>
       </c>
       <c r="C8" t="n">
-        <v>1248.370234799863</v>
+        <v>832.1627361996682</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2394.071923780208</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2394.071923780208</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2394.071923780208</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2394.071923780208</v>
+        <v>2351.330183441093</v>
       </c>
       <c r="X8" t="n">
-        <v>2394.071923780208</v>
+        <v>1977.864425180013</v>
       </c>
       <c r="Y8" t="n">
-        <v>2003.932591804396</v>
+        <v>1587.725093204202</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4950,37 +4950,37 @@
         <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1437.193859129414</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1182.509370923527</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>893.0922008865665</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>665.1026499885492</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>665.1026499885492</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5020,28 +5020,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1052.829365488568</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C13" t="n">
-        <v>883.8931825606608</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D13" t="n">
-        <v>733.776543148325</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E13" t="n">
-        <v>585.8634495659319</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F13" t="n">
-        <v>438.9735020680215</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="G13" t="n">
-        <v>271.7774027829014</v>
+        <v>131.6124460245781</v>
       </c>
       <c r="H13" t="n">
-        <v>130.0655716250996</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2227.361618603202</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1972.677130397315</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1683.259960360355</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1455.270409462337</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1234.477830318807</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5269,28 +5269,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,28 +5299,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>343.0994656851897</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851897</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851897</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,10 +5527,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400603</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121534</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121534</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121534</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121534</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270334</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,13 +5764,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>631.7012443409019</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>631.7012443409019</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443409019</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2314.910189088398</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2095.308724111339</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1806.233497455537</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1551.54900924965</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1262.131839212689</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1034.142288314672</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>813.3497091711416</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551878</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,64 +5977,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>808.8888553856866</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>781.8178837532264</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429803</v>
@@ -6144,55 +6144,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>990.5373202159263</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,37 +6220,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,55 +6360,55 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597624</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597624</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F28" t="n">
-        <v>411.9631215597624</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>244.7670222746423</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>103.0551911168404</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
         <v>2264.108249235165</v>
@@ -6426,10 +6426,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>741.843151638089</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>572.9069687101821</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>422.7903292978464</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E37" t="n">
-        <v>274.8772357154533</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F37" t="n">
-        <v>127.9872882175429</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G37" t="n">
-        <v>127.9872882175429</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H37" t="n">
-        <v>127.9872882175429</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611859</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.4916164683287</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7168,37 +7168,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803938</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.7772127656159</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C40" t="n">
-        <v>782.841029837709</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253733</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7359,25 +7359,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W40" t="n">
-        <v>1400.559342807163</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X40" t="n">
-        <v>1172.569791909146</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y40" t="n">
-        <v>951.7772127656159</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
         <v>402.7245934908938</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
         <v>402.7245934908938</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780645</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111067</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>102.8768876993837</v>
       </c>
       <c r="I13" t="n">
-        <v>45.37941682720913</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101326</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>146.815700412507</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>104.8770068749577</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392195298</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>50.29392045469993</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>140.4465591824922</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>72.11969353038566</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>12.04875628922497</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I37" t="n">
-        <v>47.43691740069021</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>25.7450400779608</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>187.3371490132298</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>136.2749052347514</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>895180.5872391545</v>
+        <v>895180.5872391547</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>895180.5872391544</v>
+        <v>895180.5872391545</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>895180.5872391544</v>
+        <v>895180.5872391547</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>895180.5872391544</v>
+        <v>895180.5872391547</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391546</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391546</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>895180.5872391546</v>
+        <v>895180.5872391547</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.150411784</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985035</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.2897985036</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.2897985036</v>
+        <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.2897985035</v>
+        <v>524645.2897985042</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.2897985036</v>
+        <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="K2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="K2" t="n">
-        <v>524645.2897985037</v>
-      </c>
       <c r="L2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985039</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099825</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,25 +26420,25 @@
         <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
+        <v>134318.0002618637</v>
+      </c>
+      <c r="D4" t="n">
         <v>134318.0002618638</v>
       </c>
-      <c r="D4" t="n">
-        <v>134318.0002618637</v>
-      </c>
       <c r="E4" t="n">
-        <v>8117.31242673182</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.31242673182</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.31242673182</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731797</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731852</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731974</v>
@@ -26450,7 +26450,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.31242673194</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
         <v>8117.312426731974</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-808330.4058658441</v>
+        <v>-808330.4058658436</v>
       </c>
       <c r="C6" t="n">
         <v>306421.3777100758</v>
       </c>
       <c r="D6" t="n">
-        <v>306421.3777100755</v>
+        <v>306421.3777100757</v>
       </c>
       <c r="E6" t="n">
-        <v>-92427.37333103834</v>
+        <v>-92114.73200211683</v>
       </c>
       <c r="F6" t="n">
-        <v>415058.0682935077</v>
+        <v>415370.709622429</v>
       </c>
       <c r="G6" t="n">
-        <v>415058.0682935077</v>
+        <v>415370.7096224292</v>
       </c>
       <c r="H6" t="n">
-        <v>415058.0682935076</v>
+        <v>415370.7096224294</v>
       </c>
       <c r="I6" t="n">
-        <v>415058.0682935076</v>
+        <v>415370.7096224292</v>
       </c>
       <c r="J6" t="n">
-        <v>247452.8904835254</v>
+        <v>247765.5318124465</v>
       </c>
       <c r="K6" t="n">
-        <v>415058.0682935077</v>
+        <v>415370.7096224292</v>
       </c>
       <c r="L6" t="n">
-        <v>415058.0682935077</v>
+        <v>415370.7096224292</v>
       </c>
       <c r="M6" t="n">
-        <v>282450.7745645809</v>
+        <v>282763.4158935026</v>
       </c>
       <c r="N6" t="n">
-        <v>415058.0682935077</v>
+        <v>415370.7096224289</v>
       </c>
       <c r="O6" t="n">
-        <v>415058.0682935077</v>
+        <v>415370.7096224292</v>
       </c>
       <c r="P6" t="n">
-        <v>415058.0682935077</v>
+        <v>415370.709622429</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,10 +26795,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26810,10 +26810,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241346</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>640.5848321000387</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>98.65494863722063</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>275.057309143706</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27548,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27587,7 +27587,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>143.6817122363096</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27596,7 +27596,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>55.73584717546831</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>204.3775415397075</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>197.3228848031843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>73.68848447670769</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>122.7559553570712</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>163.5256698052806</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>140.3419152079414</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28067,10 +28067,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>88.96741578556802</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28295,7 +28295,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.095576117183461e-11</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28499,7 +28499,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.12759545149386e-11</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28790,7 +28790,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>-1.12759545149386e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28967,7 +28967,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.12759545149386e-11</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -29037,10 +29037,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>-2.508117851338566e-12</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>400.5469039565762</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33897,7 +33897,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
         <v>867.8464071162563</v>
@@ -34143,7 +34143,7 @@
         <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460029</v>
@@ -34377,7 +34377,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159428</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215493</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34795,13 +34795,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>255.4201198419612</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>257.9506595121318</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37545,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
         <v>632.079992146269</v>
@@ -37791,7 +37791,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193518</v>
